--- a/medicine/Enfance/Pim_Lammers/Pim_Lammers.xlsx
+++ b/medicine/Enfance/Pim_Lammers/Pim_Lammers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pim Lammers est un écrivain néerlandais né le 2 octobre 1993.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lammers a étudié les sciences politiques et la langue et la culture néerlandaises à l' Université d'Amsterdam[1]. En 2017 est publié son premier album illustré, The Lamb That Is a Pig, avec des illustrations de Milja Praagman. C'est le tout premier album illustré transgenre néerlandais[2]. En 2018, ce livre reçoit un Zilveren Griffel (nl). Il n'écrit pas exclusivement des livres pour enfants, mais également de la poésie[3].
-Lammers a été sélectionné par le collectif de promotion pour le livre néerlandais (Stichting Collectieve Propaganda van het Nederlandse Boek) en 2023 pour écrire le poème de la semaine du livre jeunesse. Le site de droite radicale Reactionair exhume sa nouvelle Trainer, sortie sept ans plus tôt, qui traite des intimités entre un garçon et son entraîneur de football[4]. Lorsque des extraits ont circulé sur les réseaux sociaux, il reçoit des menaces de mort et se retire[5]. Le Premier ministre néerlandais Mark Rutte a condamné publiquement ces menaces sur Twitter[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lammers a étudié les sciences politiques et la langue et la culture néerlandaises à l' Université d'Amsterdam. En 2017 est publié son premier album illustré, The Lamb That Is a Pig, avec des illustrations de Milja Praagman. C'est le tout premier album illustré transgenre néerlandais. En 2018, ce livre reçoit un Zilveren Griffel (nl). Il n'écrit pas exclusivement des livres pour enfants, mais également de la poésie.
+Lammers a été sélectionné par le collectif de promotion pour le livre néerlandais (Stichting Collectieve Propaganda van het Nederlandse Boek) en 2023 pour écrire le poème de la semaine du livre jeunesse. Le site de droite radicale Reactionair exhume sa nouvelle Trainer, sortie sept ans plus tôt, qui traite des intimités entre un garçon et son entraîneur de football. Lorsque des extraits ont circulé sur les réseaux sociaux, il reçoit des menaces de mort et se retire. Le Premier ministre néerlandais Mark Rutte a condamné publiquement ces menaces sur Twitter.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) Pim Lammers (ill. Milja Praagman), Het lammetje dat een varken is [« Le mouton qui était un petit cochon »], De Eenhoorn, 2017 (ISBN 9789462911994)
 (nl) Pim Lammers (ill. Esther Leeuwrik), een tent vol lol [« Une tente pleine d'amusement »], Zwijsen, 2018 (ISBN 9789048733927)
@@ -589,13 +605,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2018 - Zilveren Griffel pour (nl) Het lammetje dat een varken is [« Le mouton qui était un petit cochon »]  (ill. Milja Praagman), De Eenhoorn, 2017 (ISBN 9789462911994).
-2019 - White Ravens pour (nl) De boer en de dierenarts [« Le fermier amoureux »]  (ill. Milja Praagman), De Eenhoorn, 2018 (ISBN 9789462912885). The White Raven est une sélection de livres spéciaux pour enfants et adolescents du monde entier, réalisée par l'Internationale Jugendbibliothek de Munich[7].
+2019 - White Ravens pour (nl) De boer en de dierenarts [« Le fermier amoureux »]  (ill. Milja Praagman), De Eenhoorn, 2018 (ISBN 9789462912885). The White Raven est une sélection de livres spéciaux pour enfants et adolescents du monde entier, réalisée par l'Internationale Jugendbibliothek de Munich.
 2021 - Nomination de Boon for Children's and Youth Literature pour (nl) Er was eens een koe [« Il était une fois une vache »]  (ill. Marije Tolman), Querido, 2020 (ISBN 9789045122847).
 2022 - Bronze Granger pour Tintelvlinders en pantoffelhelden, illustré par Sanne te Loo.
-2022 - Farmer Boris Premium pour ses efforts visant à créer un paysage de livres pour enfants plus diversifié[8].
+2022 - Farmer Boris Premium pour ses efforts visant à créer un paysage de livres pour enfants plus diversifié.
 2022 - Nomination de Boon pour la littérature jeunesse pour (nl) Ik denk dat ik ontvoerd ben [« Je crois que j'ai été kidnappé »]  (ill. Sarah van Dongen), Querido, 2022 (ISBN 9789045125879).</t>
         </is>
       </c>
